--- a/purple_orange_green/practice_purple_orange_green.xlsx
+++ b/purple_orange_green/practice_purple_orange_green.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rochellekaper/Desktop/Both_Tasks/purple_orange_green/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D791DEF8-659A-9F4A-BA5F-085E82F238CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037AAF85-2896-7A40-A8F3-6096527C18C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="860" windowWidth="29400" windowHeight="17260" xr2:uid="{C4CD591C-0FAA-9144-8DC6-676519489630}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="29400" windowHeight="17260" xr2:uid="{C4CD591C-0FAA-9144-8DC6-676519489630}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB08815F-18A7-2B44-B2D1-E64B89307DCE}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
